--- a/Code/Results/Cases/Case_0_113/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_113/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.424708646122147</v>
+        <v>2.945272810113571</v>
       </c>
       <c r="D2">
-        <v>2.271365950964609</v>
+        <v>2.857492738202937</v>
       </c>
       <c r="E2">
-        <v>3.378359736000028</v>
+        <v>9.660890158981333</v>
       </c>
       <c r="F2">
-        <v>22.06863810387516</v>
+        <v>19.1194699430181</v>
       </c>
       <c r="G2">
-        <v>31.82291506624251</v>
+        <v>21.81094436702325</v>
       </c>
       <c r="H2">
-        <v>8.747573214702262</v>
+        <v>11.33996407602222</v>
       </c>
       <c r="I2">
-        <v>16.07292577254477</v>
+        <v>15.88392123655433</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>28.15675497298404</v>
+        <v>18.80208496337583</v>
       </c>
       <c r="N2">
-        <v>19.83965216403599</v>
+        <v>17.24026566932926</v>
       </c>
       <c r="O2">
-        <v>16.55718088755194</v>
+        <v>16.47549961453703</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.208551910761219</v>
+        <v>2.892394151407728</v>
       </c>
       <c r="D3">
-        <v>2.19586759317315</v>
+        <v>2.844948643225307</v>
       </c>
       <c r="E3">
-        <v>3.87284950657091</v>
+        <v>9.848614818674685</v>
       </c>
       <c r="F3">
-        <v>20.70336126423417</v>
+        <v>18.79176649028076</v>
       </c>
       <c r="G3">
-        <v>29.58591269269819</v>
+        <v>21.06375382383404</v>
       </c>
       <c r="H3">
-        <v>8.409709058842152</v>
+        <v>11.31536942291477</v>
       </c>
       <c r="I3">
-        <v>15.16658461372319</v>
+        <v>15.71536822543159</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>26.33436122811129</v>
+        <v>18.04094021997504</v>
       </c>
       <c r="N3">
-        <v>18.96204683518878</v>
+        <v>16.93383788956176</v>
       </c>
       <c r="O3">
-        <v>15.62782440210785</v>
+        <v>16.30706827880249</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.068360468029104</v>
+        <v>2.860097505996259</v>
       </c>
       <c r="D4">
-        <v>2.147729015646459</v>
+        <v>2.837521751649239</v>
       </c>
       <c r="E4">
-        <v>4.192717231959142</v>
+        <v>9.969416308665235</v>
       </c>
       <c r="F4">
-        <v>19.8362181165733</v>
+        <v>18.59435496015756</v>
       </c>
       <c r="G4">
-        <v>28.14807418442267</v>
+        <v>20.59974027787345</v>
       </c>
       <c r="H4">
-        <v>8.202733482007115</v>
+        <v>11.30304127565922</v>
       </c>
       <c r="I4">
-        <v>14.59568324788073</v>
+        <v>15.61609346715682</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.1500270897804</v>
+        <v>17.55742226830502</v>
       </c>
       <c r="N4">
-        <v>18.40475686368478</v>
+        <v>16.74479773534667</v>
       </c>
       <c r="O4">
-        <v>15.04321495932325</v>
+        <v>16.20812450743713</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.009352380650687</v>
+        <v>2.846997967653003</v>
       </c>
       <c r="D5">
-        <v>2.127682641312146</v>
+        <v>2.834566522608437</v>
       </c>
       <c r="E5">
-        <v>4.326505185806523</v>
+        <v>10.02003913748257</v>
       </c>
       <c r="F5">
-        <v>19.47588005675222</v>
+        <v>18.51498364911185</v>
       </c>
       <c r="G5">
-        <v>27.54599656468009</v>
+        <v>20.40969295833277</v>
       </c>
       <c r="H5">
-        <v>8.118621295647117</v>
+        <v>11.29871797271778</v>
       </c>
       <c r="I5">
-        <v>14.3596749339147</v>
+        <v>15.57674582186314</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>24.65091460410971</v>
+        <v>17.35658199820171</v>
       </c>
       <c r="N5">
-        <v>18.17330769886626</v>
+        <v>16.66763592129333</v>
       </c>
       <c r="O5">
-        <v>14.80173511466952</v>
+        <v>16.16897483646332</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.999440686412123</v>
+        <v>2.844827066512321</v>
       </c>
       <c r="D6">
-        <v>2.124328597289147</v>
+        <v>2.834080174129344</v>
       </c>
       <c r="E6">
-        <v>4.348914655783549</v>
+        <v>10.02852937122893</v>
       </c>
       <c r="F6">
-        <v>19.41563514685688</v>
+        <v>18.50187253646626</v>
       </c>
       <c r="G6">
-        <v>27.44827633091552</v>
+        <v>20.37808886344588</v>
       </c>
       <c r="H6">
-        <v>8.104672032176808</v>
+        <v>11.29804248106588</v>
       </c>
       <c r="I6">
-        <v>14.32029163273048</v>
+        <v>15.57028039933719</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>24.56704054224527</v>
+        <v>17.323011300689</v>
       </c>
       <c r="N6">
-        <v>18.13462230670212</v>
+        <v>16.65481853048884</v>
       </c>
       <c r="O6">
-        <v>14.76145045572003</v>
+        <v>16.1625460558897</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.067572270877005</v>
+        <v>2.859920566905787</v>
       </c>
       <c r="D7">
-        <v>2.147460376271078</v>
+        <v>2.837481605044526</v>
       </c>
       <c r="E7">
-        <v>4.194508264326284</v>
+        <v>9.970093372956528</v>
       </c>
       <c r="F7">
-        <v>19.83138625703005</v>
+        <v>18.59328001889471</v>
       </c>
       <c r="G7">
-        <v>28.1400196567736</v>
+        <v>20.59718061962194</v>
       </c>
       <c r="H7">
-        <v>8.201598019823921</v>
+        <v>11.30298013003119</v>
       </c>
       <c r="I7">
-        <v>14.59251358174406</v>
+        <v>15.61555826601833</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.14336268926628</v>
+        <v>17.55472869087123</v>
       </c>
       <c r="N7">
-        <v>18.40165265736132</v>
+        <v>16.74375748498235</v>
       </c>
       <c r="O7">
-        <v>15.03997102638993</v>
+        <v>16.20759172268129</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.351727218014877</v>
+        <v>2.92701583801165</v>
       </c>
       <c r="D8">
-        <v>2.245714638664413</v>
+        <v>2.853111678337652</v>
       </c>
       <c r="E8">
-        <v>3.544990404384919</v>
+        <v>9.724469861591388</v>
       </c>
       <c r="F8">
-        <v>21.60402803569364</v>
+        <v>19.0057615609504</v>
       </c>
       <c r="G8">
-        <v>31.06494081959811</v>
+        <v>21.55460664029507</v>
       </c>
       <c r="H8">
-        <v>8.631043572032846</v>
+        <v>11.33091041941717</v>
       </c>
       <c r="I8">
-        <v>15.76354833663063</v>
+        <v>15.82495784515375</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>27.54192923262365</v>
+        <v>18.54314704846287</v>
       </c>
       <c r="N8">
-        <v>19.54103965121505</v>
+        <v>17.13485260326989</v>
       </c>
       <c r="O8">
-        <v>16.23978433992656</v>
+        <v>16.41652422298732</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.849827398765541</v>
+        <v>3.059142478383146</v>
       </c>
       <c r="D9">
-        <v>2.423523624858496</v>
+        <v>2.885851857482808</v>
       </c>
       <c r="E9">
-        <v>2.68602901768049</v>
+        <v>9.286621938734921</v>
       </c>
       <c r="F9">
-        <v>25.041855933248</v>
+        <v>19.83947044754661</v>
       </c>
       <c r="G9">
-        <v>36.2922750320694</v>
+        <v>23.37618954111514</v>
       </c>
       <c r="H9">
-        <v>9.472589605650017</v>
+        <v>11.40751328518121</v>
       </c>
       <c r="I9">
-        <v>18.22711779175514</v>
+        <v>16.26686793387874</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>31.72971124466435</v>
+        <v>20.34311927345325</v>
       </c>
       <c r="N9">
-        <v>21.61854720372109</v>
+        <v>17.8905349282614</v>
       </c>
       <c r="O9">
-        <v>18.70586796034785</v>
+        <v>16.85960358093503</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.18008530846726</v>
+        <v>3.155504498033453</v>
       </c>
       <c r="D10">
-        <v>2.544246111426644</v>
+        <v>2.911049996021791</v>
       </c>
       <c r="E10">
-        <v>3.633742408974758</v>
+        <v>8.991485936072337</v>
       </c>
       <c r="F10">
-        <v>27.45877356641429</v>
+        <v>20.46005442701366</v>
       </c>
       <c r="G10">
-        <v>39.82887995407756</v>
+        <v>24.66312781706535</v>
       </c>
       <c r="H10">
-        <v>10.08563359645949</v>
+        <v>11.47682912063841</v>
       </c>
       <c r="I10">
-        <v>20.00854057629764</v>
+        <v>16.60754844449703</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>34.49708265452539</v>
+        <v>21.56988343456625</v>
       </c>
       <c r="N10">
-        <v>23.03777807706045</v>
+        <v>18.43350607643818</v>
       </c>
       <c r="O10">
-        <v>20.54309226071159</v>
+        <v>17.20247180148453</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.322684538736701</v>
+        <v>3.198976894209952</v>
       </c>
       <c r="D11">
-        <v>2.596864827245646</v>
+        <v>2.92273283783765</v>
       </c>
       <c r="E11">
-        <v>4.065169137492202</v>
+        <v>8.862956075684419</v>
       </c>
       <c r="F11">
-        <v>28.51383430357719</v>
+        <v>20.74266320019359</v>
       </c>
       <c r="G11">
-        <v>41.3739025508831</v>
+        <v>25.23434298857242</v>
       </c>
       <c r="H11">
-        <v>10.36264288168341</v>
+        <v>11.51112086403216</v>
       </c>
       <c r="I11">
-        <v>20.78479536983682</v>
+        <v>16.76533313915579</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>35.69018146012144</v>
+        <v>22.10531176182099</v>
       </c>
       <c r="N11">
-        <v>23.65838425359331</v>
+        <v>18.67680075638491</v>
       </c>
       <c r="O11">
-        <v>21.34454671342985</v>
+        <v>17.36154851418575</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.375595196725136</v>
+        <v>3.215369954508149</v>
       </c>
       <c r="D12">
-        <v>2.616449067595885</v>
+        <v>2.927185959140635</v>
       </c>
       <c r="E12">
-        <v>4.228636253058777</v>
+        <v>8.815107336282885</v>
       </c>
       <c r="F12">
-        <v>28.90710743315267</v>
+        <v>20.84960621954469</v>
       </c>
       <c r="G12">
-        <v>41.95000594879392</v>
+        <v>25.44838181166293</v>
       </c>
       <c r="H12">
-        <v>10.46722798438461</v>
+        <v>11.52449591266434</v>
       </c>
       <c r="I12">
-        <v>21.07396192743758</v>
+        <v>16.82542842665081</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>36.13263775643857</v>
+        <v>22.30468236636218</v>
       </c>
       <c r="N12">
-        <v>23.88968303551537</v>
+        <v>18.76831451019662</v>
       </c>
       <c r="O12">
-        <v>21.64323339029295</v>
+        <v>17.42217613271754</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.364248189531003</v>
+        <v>3.211842742219154</v>
       </c>
       <c r="D13">
-        <v>2.612246590513103</v>
+        <v>2.926225647562501</v>
       </c>
       <c r="E13">
-        <v>4.193424860010462</v>
+        <v>8.825375841125439</v>
       </c>
       <c r="F13">
-        <v>28.82268492617802</v>
+        <v>20.82657928611917</v>
       </c>
       <c r="G13">
-        <v>41.82632669749225</v>
+        <v>25.40238887410828</v>
       </c>
       <c r="H13">
-        <v>10.44471813786546</v>
+        <v>11.52159815628518</v>
       </c>
       <c r="I13">
-        <v>21.01189543724173</v>
+        <v>16.81247138206119</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>36.03776049115934</v>
+        <v>22.26189672985715</v>
       </c>
       <c r="N13">
-        <v>23.84003534655039</v>
+        <v>18.74863409650544</v>
       </c>
       <c r="O13">
-        <v>21.5791174843531</v>
+        <v>17.40910252134551</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.327059288061737</v>
+        <v>3.200327036938166</v>
       </c>
       <c r="D14">
-        <v>2.598482932648051</v>
+        <v>2.923098630768104</v>
       </c>
       <c r="E14">
-        <v>4.078615211165293</v>
+        <v>8.859003047450321</v>
       </c>
       <c r="F14">
-        <v>28.5463136628613</v>
+        <v>20.75146362637511</v>
       </c>
       <c r="G14">
-        <v>41.42147723182378</v>
+        <v>25.2519987329012</v>
       </c>
       <c r="H14">
-        <v>10.37125361728999</v>
+        <v>11.51221347513658</v>
       </c>
       <c r="I14">
-        <v>20.80868041582713</v>
+        <v>16.77027061965267</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>35.72676917236471</v>
+        <v>22.12178260720155</v>
       </c>
       <c r="N14">
-        <v>23.67748829844819</v>
+        <v>18.68434247013467</v>
       </c>
       <c r="O14">
-        <v>21.36921540477754</v>
+        <v>17.36652892511394</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.304138551714659</v>
+        <v>3.193263866624943</v>
       </c>
       <c r="D15">
-        <v>2.590007544709596</v>
+        <v>2.921186953359234</v>
       </c>
       <c r="E15">
-        <v>4.008306186113067</v>
+        <v>8.879707799169331</v>
       </c>
       <c r="F15">
-        <v>28.37621788982259</v>
+        <v>20.70543994586988</v>
       </c>
       <c r="G15">
-        <v>41.17233480909191</v>
+        <v>25.15957888350052</v>
       </c>
       <c r="H15">
-        <v>10.32621276371706</v>
+        <v>11.50651558463534</v>
       </c>
       <c r="I15">
-        <v>20.68358613520849</v>
+        <v>16.74446472541444</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>35.53506475397985</v>
+        <v>22.03551437637885</v>
       </c>
       <c r="N15">
-        <v>23.57743720821209</v>
+        <v>18.64487927791798</v>
       </c>
       <c r="O15">
-        <v>21.24002234001085</v>
+        <v>17.34050027685761</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.170613234383468</v>
+        <v>3.152654714442388</v>
       </c>
       <c r="D16">
-        <v>2.540760150551213</v>
+        <v>2.910290705069418</v>
       </c>
       <c r="E16">
-        <v>3.605556369310815</v>
+        <v>9.000000845766174</v>
       </c>
       <c r="F16">
-        <v>27.38893989121939</v>
+        <v>20.44158114784532</v>
       </c>
       <c r="G16">
-        <v>39.7266425894444</v>
+        <v>24.62549176132642</v>
       </c>
       <c r="H16">
-        <v>10.06748872705184</v>
+        <v>11.47464299384559</v>
       </c>
       <c r="I16">
-        <v>19.95713406094475</v>
+        <v>16.59728837373711</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>34.41779663584336</v>
+        <v>21.53442495070978</v>
       </c>
       <c r="N16">
-        <v>22.99670637278467</v>
+        <v>18.41752436090751</v>
       </c>
       <c r="O16">
-        <v>20.49003547911006</v>
+        <v>17.1921333048274</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.086750260761879</v>
+        <v>3.127637106863963</v>
       </c>
       <c r="D17">
-        <v>2.509951674304517</v>
+        <v>2.903660765488691</v>
       </c>
       <c r="E17">
-        <v>3.358570552597791</v>
+        <v>9.075263185443863</v>
       </c>
       <c r="F17">
-        <v>26.77198847403012</v>
+        <v>20.27970415695155</v>
       </c>
       <c r="G17">
-        <v>38.82355664779607</v>
+        <v>24.29403762348669</v>
       </c>
       <c r="H17">
-        <v>9.90825572350864</v>
+        <v>11.45579199030456</v>
       </c>
       <c r="I17">
-        <v>19.50282292980452</v>
+        <v>16.50767821124227</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>33.71561719280331</v>
+        <v>21.22112726946788</v>
       </c>
       <c r="N17">
-        <v>22.6339517854315</v>
+        <v>18.27703929312078</v>
       </c>
       <c r="O17">
-        <v>20.0212415183399</v>
+        <v>17.10186909703969</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.037795038398904</v>
+        <v>3.113214410178838</v>
       </c>
       <c r="D18">
-        <v>2.49201566487852</v>
+        <v>2.899868270947553</v>
       </c>
       <c r="E18">
-        <v>3.216529957561864</v>
+        <v>9.119091377741729</v>
       </c>
       <c r="F18">
-        <v>26.41294526200981</v>
+        <v>20.18663203040163</v>
       </c>
       <c r="G18">
-        <v>38.29810589626887</v>
+        <v>24.10206721953766</v>
       </c>
       <c r="H18">
-        <v>9.816495008599853</v>
+        <v>11.44520961949479</v>
       </c>
       <c r="I18">
-        <v>19.23829526947769</v>
+        <v>16.45640455345792</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>33.30554179372844</v>
+        <v>21.03880285341849</v>
       </c>
       <c r="N18">
-        <v>22.42295620549784</v>
+        <v>18.19589193012453</v>
       </c>
       <c r="O18">
-        <v>19.74836595610582</v>
+        <v>17.05024717682241</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.02109580120449</v>
+        <v>3.108325949961692</v>
       </c>
       <c r="D19">
-        <v>2.48590612784636</v>
+        <v>2.8985878596412</v>
       </c>
       <c r="E19">
-        <v>3.168440501660697</v>
+        <v>9.13402351202612</v>
       </c>
       <c r="F19">
-        <v>26.29065632710251</v>
+        <v>20.15512913480406</v>
       </c>
       <c r="G19">
-        <v>38.11915755575633</v>
+        <v>24.03684869258807</v>
       </c>
       <c r="H19">
-        <v>9.785398083028932</v>
+        <v>11.4416715176607</v>
       </c>
       <c r="I19">
-        <v>19.14817418304042</v>
+        <v>16.43909192640924</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>33.16562902600424</v>
+        <v>20.97671044280456</v>
       </c>
       <c r="N19">
-        <v>22.35111723290773</v>
+        <v>18.16836036273692</v>
       </c>
       <c r="O19">
-        <v>19.65541526916707</v>
+        <v>17.0328214155287</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.0957520129669</v>
+        <v>3.130303837245287</v>
       </c>
       <c r="D20">
-        <v>2.513253704649298</v>
+        <v>2.904364392237945</v>
       </c>
       <c r="E20">
-        <v>3.384860508261019</v>
+        <v>9.06719557576648</v>
       </c>
       <c r="F20">
-        <v>26.83809668761444</v>
+        <v>20.29693346276987</v>
       </c>
       <c r="G20">
-        <v>38.92031327374077</v>
+        <v>24.32946049425547</v>
       </c>
       <c r="H20">
-        <v>9.925224732097016</v>
+        <v>11.45777183020653</v>
       </c>
       <c r="I20">
-        <v>19.55151752357705</v>
+        <v>16.51719007669677</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>33.79100629794679</v>
+        <v>21.2546991585039</v>
       </c>
       <c r="N20">
-        <v>22.67281162519841</v>
+        <v>18.29203039991417</v>
       </c>
       <c r="O20">
-        <v>20.07147964855235</v>
+        <v>17.11144769292883</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.338012031372631</v>
+        <v>3.203711480657593</v>
       </c>
       <c r="D21">
-        <v>2.602534996047651</v>
+        <v>2.924016342729327</v>
       </c>
       <c r="E21">
-        <v>4.112334229454909</v>
+        <v>8.849103600223792</v>
       </c>
       <c r="F21">
-        <v>28.62765922332489</v>
+        <v>20.77352986547625</v>
       </c>
       <c r="G21">
-        <v>41.54063274383675</v>
+        <v>25.2962351676085</v>
       </c>
       <c r="H21">
-        <v>10.39284067786536</v>
+        <v>11.51495947373993</v>
       </c>
       <c r="I21">
-        <v>20.86849840109241</v>
+        <v>16.78265708812577</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>35.81836747860778</v>
+        <v>22.16303031519017</v>
       </c>
       <c r="N21">
-        <v>23.72533382984187</v>
+        <v>18.70324385986559</v>
       </c>
       <c r="O21">
-        <v>21.4309981079317</v>
+        <v>17.37902373282015</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.490003166128941</v>
+        <v>3.251278300092378</v>
       </c>
       <c r="D22">
-        <v>2.658891804583266</v>
+        <v>2.937028330377697</v>
       </c>
       <c r="E22">
-        <v>4.588405264335188</v>
+        <v>8.711363120930281</v>
       </c>
       <c r="F22">
-        <v>29.7608565747666</v>
+        <v>21.08452578551665</v>
       </c>
       <c r="G22">
-        <v>43.20104063449016</v>
+        <v>25.91477293681093</v>
       </c>
       <c r="H22">
-        <v>10.70977663812794</v>
+        <v>11.55460143452917</v>
       </c>
       <c r="I22">
-        <v>21.70140060631837</v>
+        <v>16.95814302529789</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>37.088961529824</v>
+        <v>22.73690274819445</v>
       </c>
       <c r="N22">
-        <v>24.39154839441141</v>
+        <v>18.96836571639813</v>
       </c>
       <c r="O22">
-        <v>22.2915735060827</v>
+        <v>17.55613914195533</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.40945926303193</v>
+        <v>3.225933767423637</v>
       </c>
       <c r="D23">
-        <v>2.628998793244307</v>
+        <v>2.930069044487508</v>
       </c>
       <c r="E23">
-        <v>4.334225108978458</v>
+        <v>8.784439315334232</v>
       </c>
       <c r="F23">
-        <v>29.15932816352992</v>
+        <v>20.91862383940697</v>
       </c>
       <c r="G23">
-        <v>42.31954054330813</v>
+        <v>25.58593237543431</v>
       </c>
       <c r="H23">
-        <v>10.53466748140692</v>
+        <v>11.53323896497671</v>
       </c>
       <c r="I23">
-        <v>21.25936698689427</v>
+        <v>16.86432013052328</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>36.41575804734845</v>
+        <v>22.43246363937578</v>
       </c>
       <c r="N23">
-        <v>24.03799190943701</v>
+        <v>18.82722379674622</v>
       </c>
       <c r="O23">
-        <v>21.83478000238733</v>
+        <v>17.46142351301616</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.091684630433577</v>
+        <v>3.129098330956484</v>
       </c>
       <c r="D24">
-        <v>2.511761553004777</v>
+        <v>2.904046222771437</v>
       </c>
       <c r="E24">
-        <v>3.372974963319503</v>
+        <v>9.070841200980647</v>
       </c>
       <c r="F24">
-        <v>26.80822272194674</v>
+        <v>20.28914410592916</v>
       </c>
       <c r="G24">
-        <v>38.87658910042538</v>
+        <v>24.31345019830551</v>
       </c>
       <c r="H24">
-        <v>9.917553711170939</v>
+        <v>11.45687594868073</v>
       </c>
       <c r="I24">
-        <v>19.52951310442211</v>
+        <v>16.51288899650855</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>33.75694277407157</v>
+        <v>21.23952816673902</v>
       </c>
       <c r="N24">
-        <v>22.65525069248073</v>
+        <v>18.28525409966325</v>
       </c>
       <c r="O24">
-        <v>20.04877746392413</v>
+        <v>17.10711635747137</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.721378336625617</v>
+        <v>3.02344984620726</v>
       </c>
       <c r="D25">
-        <v>2.377107330757602</v>
+        <v>2.8767842365738</v>
       </c>
       <c r="E25">
-        <v>2.720081195177793</v>
+        <v>9.400397923122076</v>
       </c>
       <c r="F25">
-        <v>24.11169176894607</v>
+        <v>19.6120089327625</v>
       </c>
       <c r="G25">
-        <v>34.93210809390587</v>
+        <v>22.8912849762203</v>
       </c>
       <c r="H25">
-        <v>9.245548395663999</v>
+        <v>11.38447844197752</v>
       </c>
       <c r="I25">
-        <v>17.54008446741831</v>
+        <v>16.14428118618297</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>30.65154948328291</v>
+        <v>19.87226317766147</v>
       </c>
       <c r="N25">
-        <v>21.0746349578714</v>
+        <v>17.68787599418601</v>
       </c>
       <c r="O25">
-        <v>17.99810538626026</v>
+        <v>16.73647062420718</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_113/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_113/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.945272810113571</v>
+        <v>3.424708646122125</v>
       </c>
       <c r="D2">
-        <v>2.857492738202937</v>
+        <v>2.27136595096456</v>
       </c>
       <c r="E2">
-        <v>9.660890158981333</v>
+        <v>3.378359736000089</v>
       </c>
       <c r="F2">
-        <v>19.1194699430181</v>
+        <v>22.06863810387516</v>
       </c>
       <c r="G2">
-        <v>21.81094436702325</v>
+        <v>31.82291506624248</v>
       </c>
       <c r="H2">
-        <v>11.33996407602222</v>
+        <v>8.747573214702317</v>
       </c>
       <c r="I2">
-        <v>15.88392123655433</v>
+        <v>16.07292577254476</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.80208496337583</v>
+        <v>28.15675497298401</v>
       </c>
       <c r="N2">
-        <v>17.24026566932926</v>
+        <v>19.83965216403599</v>
       </c>
       <c r="O2">
-        <v>16.47549961453703</v>
+        <v>16.55718088755195</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.892394151407728</v>
+        <v>3.208551910761285</v>
       </c>
       <c r="D3">
-        <v>2.844948643225307</v>
+        <v>2.195867593173212</v>
       </c>
       <c r="E3">
-        <v>9.848614818674685</v>
+        <v>3.872849506570907</v>
       </c>
       <c r="F3">
-        <v>18.79176649028076</v>
+        <v>20.70336126423418</v>
       </c>
       <c r="G3">
-        <v>21.06375382383404</v>
+        <v>29.58591269269814</v>
       </c>
       <c r="H3">
-        <v>11.31536942291477</v>
+        <v>8.409709058842136</v>
       </c>
       <c r="I3">
-        <v>15.71536822543159</v>
+        <v>15.16658461372319</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.04094021997504</v>
+        <v>26.33436122811129</v>
       </c>
       <c r="N3">
-        <v>16.93383788956176</v>
+        <v>18.96204683518878</v>
       </c>
       <c r="O3">
-        <v>16.30706827880249</v>
+        <v>15.62782440210785</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.860097505996259</v>
+        <v>3.06836046802912</v>
       </c>
       <c r="D4">
-        <v>2.837521751649239</v>
+        <v>2.147729015646459</v>
       </c>
       <c r="E4">
-        <v>9.969416308665235</v>
+        <v>4.19271723195914</v>
       </c>
       <c r="F4">
-        <v>18.59435496015756</v>
+        <v>19.83621811657326</v>
       </c>
       <c r="G4">
-        <v>20.59974027787345</v>
+        <v>28.14807418442266</v>
       </c>
       <c r="H4">
-        <v>11.30304127565922</v>
+        <v>8.20273348200711</v>
       </c>
       <c r="I4">
-        <v>15.61609346715682</v>
+        <v>14.59568324788073</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.55742226830502</v>
+        <v>25.15002708978041</v>
       </c>
       <c r="N4">
-        <v>16.74479773534667</v>
+        <v>18.4047568636848</v>
       </c>
       <c r="O4">
-        <v>16.20812450743713</v>
+        <v>15.04321495932323</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.846997967653003</v>
+        <v>3.009352380650687</v>
       </c>
       <c r="D5">
-        <v>2.834566522608437</v>
+        <v>2.127682641312094</v>
       </c>
       <c r="E5">
-        <v>10.02003913748257</v>
+        <v>4.326505185806521</v>
       </c>
       <c r="F5">
-        <v>18.51498364911185</v>
+        <v>19.47588005675214</v>
       </c>
       <c r="G5">
-        <v>20.40969295833277</v>
+        <v>27.54599656468011</v>
       </c>
       <c r="H5">
-        <v>11.29871797271778</v>
+        <v>8.118621295647031</v>
       </c>
       <c r="I5">
-        <v>15.57674582186314</v>
+        <v>14.35967493391462</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.35658199820171</v>
+        <v>24.65091460410978</v>
       </c>
       <c r="N5">
-        <v>16.66763592129333</v>
+        <v>18.17330769886631</v>
       </c>
       <c r="O5">
-        <v>16.16897483646332</v>
+        <v>14.80173511466943</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.844827066512321</v>
+        <v>2.999440686412206</v>
       </c>
       <c r="D6">
-        <v>2.834080174129344</v>
+        <v>2.124328597289247</v>
       </c>
       <c r="E6">
-        <v>10.02852937122893</v>
+        <v>4.348914655783485</v>
       </c>
       <c r="F6">
-        <v>18.50187253646626</v>
+        <v>19.41563514685684</v>
       </c>
       <c r="G6">
-        <v>20.37808886344588</v>
+        <v>27.44827633091556</v>
       </c>
       <c r="H6">
-        <v>11.29804248106588</v>
+        <v>8.104672032176779</v>
       </c>
       <c r="I6">
-        <v>15.57028039933719</v>
+        <v>14.32029163273046</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.323011300689</v>
+        <v>24.56704054224531</v>
       </c>
       <c r="N6">
-        <v>16.65481853048884</v>
+        <v>18.13462230670212</v>
       </c>
       <c r="O6">
-        <v>16.1625460558897</v>
+        <v>14.76145045572</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.859920566905787</v>
+        <v>3.067572270877138</v>
       </c>
       <c r="D7">
-        <v>2.837481605044526</v>
+        <v>2.147460376271031</v>
       </c>
       <c r="E7">
-        <v>9.970093372956528</v>
+        <v>4.194508264326349</v>
       </c>
       <c r="F7">
-        <v>18.59328001889471</v>
+        <v>19.83138625702998</v>
       </c>
       <c r="G7">
-        <v>20.59718061962194</v>
+        <v>28.14001965677356</v>
       </c>
       <c r="H7">
-        <v>11.30298013003119</v>
+        <v>8.201598019823878</v>
       </c>
       <c r="I7">
-        <v>15.61555826601833</v>
+        <v>14.59251358174396</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.55472869087123</v>
+        <v>25.1433626892663</v>
       </c>
       <c r="N7">
-        <v>16.74375748498235</v>
+        <v>18.40165265736134</v>
       </c>
       <c r="O7">
-        <v>16.20759172268129</v>
+        <v>15.03997102638986</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.92701583801165</v>
+        <v>3.351727218014803</v>
       </c>
       <c r="D8">
-        <v>2.853111678337652</v>
+        <v>2.245714638664419</v>
       </c>
       <c r="E8">
-        <v>9.724469861591388</v>
+        <v>3.544990404384796</v>
       </c>
       <c r="F8">
-        <v>19.0057615609504</v>
+        <v>21.60402803569364</v>
       </c>
       <c r="G8">
-        <v>21.55460664029507</v>
+        <v>31.06494081959799</v>
       </c>
       <c r="H8">
-        <v>11.33091041941717</v>
+        <v>8.631043572032867</v>
       </c>
       <c r="I8">
-        <v>15.82495784515375</v>
+        <v>15.76354833663064</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.54314704846287</v>
+        <v>27.54192923262362</v>
       </c>
       <c r="N8">
-        <v>17.13485260326989</v>
+        <v>19.54103965121504</v>
       </c>
       <c r="O8">
-        <v>16.41652422298732</v>
+        <v>16.23978433992657</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.059142478383146</v>
+        <v>3.849827398765598</v>
       </c>
       <c r="D9">
-        <v>2.885851857482808</v>
+        <v>2.423523624858549</v>
       </c>
       <c r="E9">
-        <v>9.286621938734921</v>
+        <v>2.686029017680613</v>
       </c>
       <c r="F9">
-        <v>19.83947044754661</v>
+        <v>25.041855933248</v>
       </c>
       <c r="G9">
-        <v>23.37618954111514</v>
+        <v>36.29227503206936</v>
       </c>
       <c r="H9">
-        <v>11.40751328518121</v>
+        <v>9.472589605650017</v>
       </c>
       <c r="I9">
-        <v>16.26686793387874</v>
+        <v>18.22711779175514</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.34311927345325</v>
+        <v>31.72971124466435</v>
       </c>
       <c r="N9">
-        <v>17.8905349282614</v>
+        <v>21.61854720372109</v>
       </c>
       <c r="O9">
-        <v>16.85960358093503</v>
+        <v>18.70586796034783</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.155504498033453</v>
+        <v>4.180085308467219</v>
       </c>
       <c r="D10">
-        <v>2.911049996021791</v>
+        <v>2.544246111426752</v>
       </c>
       <c r="E10">
-        <v>8.991485936072337</v>
+        <v>3.633742408974752</v>
       </c>
       <c r="F10">
-        <v>20.46005442701366</v>
+        <v>27.45877356641431</v>
       </c>
       <c r="G10">
-        <v>24.66312781706535</v>
+        <v>39.82887995407752</v>
       </c>
       <c r="H10">
-        <v>11.47682912063841</v>
+        <v>10.08563359645948</v>
       </c>
       <c r="I10">
-        <v>16.60754844449703</v>
+        <v>20.00854057629763</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.56988343456625</v>
+        <v>34.49708265452539</v>
       </c>
       <c r="N10">
-        <v>18.43350607643818</v>
+        <v>23.03777807706046</v>
       </c>
       <c r="O10">
-        <v>17.20247180148453</v>
+        <v>20.54309226071157</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.198976894209952</v>
+        <v>4.322684538736718</v>
       </c>
       <c r="D11">
-        <v>2.92273283783765</v>
+        <v>2.59686482724569</v>
       </c>
       <c r="E11">
-        <v>8.862956075684419</v>
+        <v>4.065169137492141</v>
       </c>
       <c r="F11">
-        <v>20.74266320019359</v>
+        <v>28.51383430357723</v>
       </c>
       <c r="G11">
-        <v>25.23434298857242</v>
+        <v>41.37390255088319</v>
       </c>
       <c r="H11">
-        <v>11.51112086403216</v>
+        <v>10.36264288168342</v>
       </c>
       <c r="I11">
-        <v>16.76533313915579</v>
+        <v>20.78479536983684</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.10531176182099</v>
+        <v>35.69018146012146</v>
       </c>
       <c r="N11">
-        <v>18.67680075638491</v>
+        <v>23.65838425359331</v>
       </c>
       <c r="O11">
-        <v>17.36154851418575</v>
+        <v>21.34454671342987</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.215369954508149</v>
+        <v>4.375595196725136</v>
       </c>
       <c r="D12">
-        <v>2.927185959140635</v>
+        <v>2.616449067595891</v>
       </c>
       <c r="E12">
-        <v>8.815107336282885</v>
+        <v>4.228636253058775</v>
       </c>
       <c r="F12">
-        <v>20.84960621954469</v>
+        <v>28.90710743315262</v>
       </c>
       <c r="G12">
-        <v>25.44838181166293</v>
+        <v>41.95000594879386</v>
       </c>
       <c r="H12">
-        <v>11.52449591266434</v>
+        <v>10.46722798438463</v>
       </c>
       <c r="I12">
-        <v>16.82542842665081</v>
+        <v>21.07396192743754</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.30468236636218</v>
+        <v>36.13263775643855</v>
       </c>
       <c r="N12">
-        <v>18.76831451019662</v>
+        <v>23.88968303551535</v>
       </c>
       <c r="O12">
-        <v>17.42217613271754</v>
+        <v>21.6432333902929</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.211842742219154</v>
+        <v>4.364248189531081</v>
       </c>
       <c r="D13">
-        <v>2.926225647562501</v>
+        <v>2.612246590513165</v>
       </c>
       <c r="E13">
-        <v>8.825375841125439</v>
+        <v>4.193424860010527</v>
       </c>
       <c r="F13">
-        <v>20.82657928611917</v>
+        <v>28.82268492617795</v>
       </c>
       <c r="G13">
-        <v>25.40238887410828</v>
+        <v>41.82632669749214</v>
       </c>
       <c r="H13">
-        <v>11.52159815628518</v>
+        <v>10.44471813786547</v>
       </c>
       <c r="I13">
-        <v>16.81247138206119</v>
+        <v>21.01189543724168</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.26189672985715</v>
+        <v>36.03776049115932</v>
       </c>
       <c r="N13">
-        <v>18.74863409650544</v>
+        <v>23.84003534655041</v>
       </c>
       <c r="O13">
-        <v>17.40910252134551</v>
+        <v>21.57911748435302</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.200327036938166</v>
+        <v>4.327059288061674</v>
       </c>
       <c r="D14">
-        <v>2.923098630768104</v>
+        <v>2.598482932648107</v>
       </c>
       <c r="E14">
-        <v>8.859003047450321</v>
+        <v>4.078615211165484</v>
       </c>
       <c r="F14">
-        <v>20.75146362637511</v>
+        <v>28.54631366286129</v>
       </c>
       <c r="G14">
-        <v>25.2519987329012</v>
+        <v>41.42147723182372</v>
       </c>
       <c r="H14">
-        <v>11.51221347513658</v>
+        <v>10.37125361729002</v>
       </c>
       <c r="I14">
-        <v>16.77027061965267</v>
+        <v>20.8086804158271</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.12178260720155</v>
+        <v>35.72676917236472</v>
       </c>
       <c r="N14">
-        <v>18.68434247013467</v>
+        <v>23.67748829844819</v>
       </c>
       <c r="O14">
-        <v>17.36652892511394</v>
+        <v>21.36921540477752</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.193263866624943</v>
+        <v>4.304138551714691</v>
       </c>
       <c r="D15">
-        <v>2.921186953359234</v>
+        <v>2.590007544709665</v>
       </c>
       <c r="E15">
-        <v>8.879707799169331</v>
+        <v>4.008306186113073</v>
       </c>
       <c r="F15">
-        <v>20.70543994586988</v>
+        <v>28.37621788982277</v>
       </c>
       <c r="G15">
-        <v>25.15957888350052</v>
+        <v>41.17233480909218</v>
       </c>
       <c r="H15">
-        <v>11.50651558463534</v>
+        <v>10.32621276371704</v>
       </c>
       <c r="I15">
-        <v>16.74446472541444</v>
+        <v>20.68358613520861</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.03551437637885</v>
+        <v>35.53506475397993</v>
       </c>
       <c r="N15">
-        <v>18.64487927791798</v>
+        <v>23.57743720821209</v>
       </c>
       <c r="O15">
-        <v>17.34050027685761</v>
+        <v>21.24002234001098</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.152654714442388</v>
+        <v>4.170613234383501</v>
       </c>
       <c r="D16">
-        <v>2.910290705069418</v>
+        <v>2.540760150551238</v>
       </c>
       <c r="E16">
-        <v>9.000000845766174</v>
+        <v>3.605556369310735</v>
       </c>
       <c r="F16">
-        <v>20.44158114784532</v>
+        <v>27.38893989121931</v>
       </c>
       <c r="G16">
-        <v>24.62549176132642</v>
+        <v>39.7266425894443</v>
       </c>
       <c r="H16">
-        <v>11.47464299384559</v>
+        <v>10.06748872705186</v>
       </c>
       <c r="I16">
-        <v>16.59728837373711</v>
+        <v>19.95713406094469</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.53442495070978</v>
+        <v>34.41779663584332</v>
       </c>
       <c r="N16">
-        <v>18.41752436090751</v>
+        <v>22.99670637278469</v>
       </c>
       <c r="O16">
-        <v>17.1921333048274</v>
+        <v>20.49003547910999</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.127637106863963</v>
+        <v>4.086750260761924</v>
       </c>
       <c r="D17">
-        <v>2.903660765488691</v>
+        <v>2.509951674304582</v>
       </c>
       <c r="E17">
-        <v>9.075263185443863</v>
+        <v>3.358570552597848</v>
       </c>
       <c r="F17">
-        <v>20.27970415695155</v>
+        <v>26.77198847403009</v>
       </c>
       <c r="G17">
-        <v>24.29403762348669</v>
+        <v>38.82355664779597</v>
       </c>
       <c r="H17">
-        <v>11.45579199030456</v>
+        <v>9.908255723508656</v>
       </c>
       <c r="I17">
-        <v>16.50767821124227</v>
+        <v>19.50282292980449</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.22112726946788</v>
+        <v>33.71561719280329</v>
       </c>
       <c r="N17">
-        <v>18.27703929312078</v>
+        <v>22.63395178543152</v>
       </c>
       <c r="O17">
-        <v>17.10186909703969</v>
+        <v>20.02124151833982</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.113214410178838</v>
+        <v>4.037795038398904</v>
       </c>
       <c r="D18">
-        <v>2.899868270947553</v>
+        <v>2.492015664878571</v>
       </c>
       <c r="E18">
-        <v>9.119091377741729</v>
+        <v>3.216529957561681</v>
       </c>
       <c r="F18">
-        <v>20.18663203040163</v>
+        <v>26.41294526200987</v>
       </c>
       <c r="G18">
-        <v>24.10206721953766</v>
+        <v>38.29810589626896</v>
       </c>
       <c r="H18">
-        <v>11.44520961949479</v>
+        <v>9.816495008599826</v>
       </c>
       <c r="I18">
-        <v>16.45640455345792</v>
+        <v>19.23829526947772</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.03880285341849</v>
+        <v>33.30554179372847</v>
       </c>
       <c r="N18">
-        <v>18.19589193012453</v>
+        <v>22.42295620549783</v>
       </c>
       <c r="O18">
-        <v>17.05024717682241</v>
+        <v>19.74836595610588</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.108325949961692</v>
+        <v>4.021095801204453</v>
       </c>
       <c r="D19">
-        <v>2.8985878596412</v>
+        <v>2.485906127846355</v>
       </c>
       <c r="E19">
-        <v>9.13402351202612</v>
+        <v>3.168440501660754</v>
       </c>
       <c r="F19">
-        <v>20.15512913480406</v>
+        <v>26.29065632710249</v>
       </c>
       <c r="G19">
-        <v>24.03684869258807</v>
+        <v>38.11915755575635</v>
       </c>
       <c r="H19">
-        <v>11.4416715176607</v>
+        <v>9.785398083028953</v>
       </c>
       <c r="I19">
-        <v>16.43909192640924</v>
+        <v>19.14817418304037</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.97671044280456</v>
+        <v>33.16562902600421</v>
       </c>
       <c r="N19">
-        <v>18.16836036273692</v>
+        <v>22.35111723290771</v>
       </c>
       <c r="O19">
-        <v>17.0328214155287</v>
+        <v>19.65541526916705</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.130303837245287</v>
+        <v>4.095752012966892</v>
       </c>
       <c r="D20">
-        <v>2.904364392237945</v>
+        <v>2.513253704649396</v>
       </c>
       <c r="E20">
-        <v>9.06719557576648</v>
+        <v>3.384860508260951</v>
       </c>
       <c r="F20">
-        <v>20.29693346276987</v>
+        <v>26.83809668761447</v>
       </c>
       <c r="G20">
-        <v>24.32946049425547</v>
+        <v>38.92031327374079</v>
       </c>
       <c r="H20">
-        <v>11.45777183020653</v>
+        <v>9.925224732097035</v>
       </c>
       <c r="I20">
-        <v>16.51719007669677</v>
+        <v>19.55151752357705</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.2546991585039</v>
+        <v>33.79100629794677</v>
       </c>
       <c r="N20">
-        <v>18.29203039991417</v>
+        <v>22.6728116251984</v>
       </c>
       <c r="O20">
-        <v>17.11144769292883</v>
+        <v>20.07147964855235</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.203711480657593</v>
+        <v>4.338012031372726</v>
       </c>
       <c r="D21">
-        <v>2.924016342729327</v>
+        <v>2.60253499604769</v>
       </c>
       <c r="E21">
-        <v>8.849103600223792</v>
+        <v>4.112334229455027</v>
       </c>
       <c r="F21">
-        <v>20.77352986547625</v>
+        <v>28.62765922332483</v>
       </c>
       <c r="G21">
-        <v>25.2962351676085</v>
+        <v>41.54063274383661</v>
       </c>
       <c r="H21">
-        <v>11.51495947373993</v>
+        <v>10.3928406778654</v>
       </c>
       <c r="I21">
-        <v>16.78265708812577</v>
+        <v>20.86849840109234</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.16303031519017</v>
+        <v>35.81836747860772</v>
       </c>
       <c r="N21">
-        <v>18.70324385986559</v>
+        <v>23.72533382984187</v>
       </c>
       <c r="O21">
-        <v>17.37902373282015</v>
+        <v>21.43099810793162</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.251278300092378</v>
+        <v>4.490003166128949</v>
       </c>
       <c r="D22">
-        <v>2.937028330377697</v>
+        <v>2.658891804583273</v>
       </c>
       <c r="E22">
-        <v>8.711363120930281</v>
+        <v>4.588405264335253</v>
       </c>
       <c r="F22">
-        <v>21.08452578551665</v>
+        <v>29.76085657476654</v>
       </c>
       <c r="G22">
-        <v>25.91477293681093</v>
+        <v>43.20104063449008</v>
       </c>
       <c r="H22">
-        <v>11.55460143452917</v>
+        <v>10.70977663812791</v>
       </c>
       <c r="I22">
-        <v>16.95814302529789</v>
+        <v>21.70140060631832</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.73690274819445</v>
+        <v>37.08896152982397</v>
       </c>
       <c r="N22">
-        <v>18.96836571639813</v>
+        <v>24.39154839441141</v>
       </c>
       <c r="O22">
-        <v>17.55613914195533</v>
+        <v>22.29157350608264</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.225933767423637</v>
+        <v>4.409459263031898</v>
       </c>
       <c r="D23">
-        <v>2.930069044487508</v>
+        <v>2.628998793244389</v>
       </c>
       <c r="E23">
-        <v>8.784439315334232</v>
+        <v>4.334225108978459</v>
       </c>
       <c r="F23">
-        <v>20.91862383940697</v>
+        <v>29.15932816352998</v>
       </c>
       <c r="G23">
-        <v>25.58593237543431</v>
+        <v>42.31954054330816</v>
       </c>
       <c r="H23">
-        <v>11.53323896497671</v>
+        <v>10.53466748140692</v>
       </c>
       <c r="I23">
-        <v>16.86432013052328</v>
+        <v>21.2593669868943</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.43246363937578</v>
+        <v>36.41575804734848</v>
       </c>
       <c r="N23">
-        <v>18.82722379674622</v>
+        <v>24.03799190943701</v>
       </c>
       <c r="O23">
-        <v>17.46142351301616</v>
+        <v>21.83478000238737</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.129098330956484</v>
+        <v>4.091684630433696</v>
       </c>
       <c r="D24">
-        <v>2.904046222771437</v>
+        <v>2.511761553004817</v>
       </c>
       <c r="E24">
-        <v>9.070841200980647</v>
+        <v>3.372974963319494</v>
       </c>
       <c r="F24">
-        <v>20.28914410592916</v>
+        <v>26.8082227219467</v>
       </c>
       <c r="G24">
-        <v>24.31345019830551</v>
+        <v>38.87658910042533</v>
       </c>
       <c r="H24">
-        <v>11.45687594868073</v>
+        <v>9.91755371117093</v>
       </c>
       <c r="I24">
-        <v>16.51288899650855</v>
+        <v>19.5295131044221</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.23952816673902</v>
+        <v>33.75694277407153</v>
       </c>
       <c r="N24">
-        <v>18.28525409966325</v>
+        <v>22.65525069248074</v>
       </c>
       <c r="O24">
-        <v>17.10711635747137</v>
+        <v>20.04877746392412</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.02344984620726</v>
+        <v>3.72137833662561</v>
       </c>
       <c r="D25">
-        <v>2.8767842365738</v>
+        <v>2.377107330757644</v>
       </c>
       <c r="E25">
-        <v>9.400397923122076</v>
+        <v>2.720081195177843</v>
       </c>
       <c r="F25">
-        <v>19.6120089327625</v>
+        <v>24.11169176894604</v>
       </c>
       <c r="G25">
-        <v>22.8912849762203</v>
+        <v>34.9321080939058</v>
       </c>
       <c r="H25">
-        <v>11.38447844197752</v>
+        <v>9.245548395664013</v>
       </c>
       <c r="I25">
-        <v>16.14428118618297</v>
+        <v>17.54008446741827</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.87226317766147</v>
+        <v>30.65154948328287</v>
       </c>
       <c r="N25">
-        <v>17.68787599418601</v>
+        <v>21.0746349578714</v>
       </c>
       <c r="O25">
-        <v>16.73647062420718</v>
+        <v>17.99810538626022</v>
       </c>
     </row>
   </sheetData>
